--- a/Data/EC/NIT-9006002550.xlsx
+++ b/Data/EC/NIT-9006002550.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC421001-F0E5-4FE0-AF7A-240B73BE0D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44318608-530C-4331-8926-72B55B50EE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0898F946-FD40-47B7-A71F-B5FA2CE7CD5C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A9E5B2EA-6F7E-492D-A0B4-C92E4CE6F724}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,40 +65,40 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1143355624</t>
+  </si>
+  <si>
+    <t>DAIRY LUZ CAUSADO CERVANTES</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
     <t>45694304</t>
   </si>
   <si>
     <t>YESENIA ORTEGA RODRIGUEZ</t>
   </si>
   <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
     <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>1143355624</t>
-  </si>
-  <si>
-    <t>DAIRY LUZ CAUSADO CERVANTES</t>
-  </si>
-  <si>
-    <t>1802</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -197,22 +197,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -412,23 +412,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,10 +456,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,7 +512,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4A4157B-7251-A086-80B0-9109EE96EC91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2807230-FC64-391E-F93E-52E26764943A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -863,7 +863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB207359-F50F-4307-A79A-A158E5EC7068}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9C2349-A3BE-4BAB-B50D-2F386DDF51DE}">
   <dimension ref="B2:J29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1041,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36800</v>
+        <v>48000</v>
       </c>
       <c r="G16" s="18">
         <v>1200000</v>
@@ -1055,13 +1055,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>48000</v>
@@ -1078,13 +1078,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>48000</v>
@@ -1101,13 +1101,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>48000</v>
@@ -1124,13 +1124,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>48000</v>
@@ -1147,13 +1147,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>48000</v>
@@ -1170,13 +1170,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>48000</v>
@@ -1193,16 +1193,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E23" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="24">
-        <v>48000</v>
+        <v>36800</v>
       </c>
       <c r="G23" s="24">
         <v>1200000</v>
